--- a/coleta-manhente.xlsx
+++ b/coleta-manhente.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4965" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4965"/>
   </bookViews>
   <sheets>
     <sheet name="Médias" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -480,11 +480,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75014912"/>
-        <c:axId val="75017216"/>
+        <c:axId val="75685888"/>
+        <c:axId val="75687808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75014912"/>
+        <c:axId val="75685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,14 +508,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75017216"/>
+        <c:crossAx val="75687808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75017216"/>
+        <c:axId val="75687808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +541,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75014912"/>
+        <c:crossAx val="75685888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -554,7 +554,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -562,7 +562,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -800,11 +800,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76715136"/>
-        <c:axId val="76717056"/>
+        <c:axId val="76247424"/>
+        <c:axId val="76249344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76715136"/>
+        <c:axId val="76247424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,14 +828,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76717056"/>
+        <c:crossAx val="76249344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76717056"/>
+        <c:axId val="76249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76715136"/>
+        <c:crossAx val="76247424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -874,7 +874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -882,7 +882,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -1137,11 +1137,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76838016"/>
-        <c:axId val="76839936"/>
+        <c:axId val="76095872"/>
+        <c:axId val="76097792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76838016"/>
+        <c:axId val="76095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,14 +1165,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76839936"/>
+        <c:crossAx val="76097792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76839936"/>
+        <c:axId val="76097792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1198,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76838016"/>
+        <c:crossAx val="76095872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1211,7 +1211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1219,7 +1219,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -1441,11 +1441,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76895744"/>
-        <c:axId val="76897664"/>
+        <c:axId val="76288768"/>
+        <c:axId val="76290688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76895744"/>
+        <c:axId val="76288768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,14 +1469,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76897664"/>
+        <c:crossAx val="76290688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76897664"/>
+        <c:axId val="76290688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1502,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76895744"/>
+        <c:crossAx val="76288768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,7 +1515,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1523,7 +1523,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1714,11 +1714,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76744576"/>
-        <c:axId val="76754944"/>
+        <c:axId val="76330112"/>
+        <c:axId val="76332032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76744576"/>
+        <c:axId val="76330112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,14 +1742,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76754944"/>
+        <c:crossAx val="76332032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76754944"/>
+        <c:axId val="76332032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1775,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76744576"/>
+        <c:crossAx val="76330112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,7 +1788,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1796,7 +1796,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1987,11 +1987,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76790016"/>
-        <c:axId val="76796288"/>
+        <c:axId val="76359168"/>
+        <c:axId val="76361088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76790016"/>
+        <c:axId val="76359168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,14 +2015,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76796288"/>
+        <c:crossAx val="76361088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76796288"/>
+        <c:axId val="76361088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2048,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76790016"/>
+        <c:crossAx val="76359168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2061,7 +2061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2069,7 +2069,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2260,11 +2260,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77224576"/>
-        <c:axId val="77243136"/>
+        <c:axId val="76412800"/>
+        <c:axId val="76423168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77224576"/>
+        <c:axId val="76412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,14 +2288,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77243136"/>
+        <c:crossAx val="76423168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77243136"/>
+        <c:axId val="76423168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,7 +2321,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77224576"/>
+        <c:crossAx val="76412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2334,7 +2334,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2342,7 +2342,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2530,11 +2530,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77278208"/>
-        <c:axId val="77292672"/>
+        <c:axId val="76462336"/>
+        <c:axId val="76476800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77278208"/>
+        <c:axId val="76462336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,14 +2558,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77292672"/>
+        <c:crossAx val="76476800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77292672"/>
+        <c:axId val="76476800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2591,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77278208"/>
+        <c:crossAx val="76462336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2604,7 +2604,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2612,7 +2612,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -2862,11 +2862,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77426688"/>
-        <c:axId val="77428608"/>
+        <c:axId val="76536832"/>
+        <c:axId val="76547200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77426688"/>
+        <c:axId val="76536832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,14 +2890,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77428608"/>
+        <c:crossAx val="76547200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77428608"/>
+        <c:axId val="76547200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2923,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77426688"/>
+        <c:crossAx val="76536832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2936,7 +2936,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2944,7 +2944,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3182,11 +3182,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77459840"/>
-        <c:axId val="77461760"/>
+        <c:axId val="76582272"/>
+        <c:axId val="76596736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77459840"/>
+        <c:axId val="76582272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,14 +3210,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77461760"/>
+        <c:crossAx val="76596736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77461760"/>
+        <c:axId val="76596736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3243,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77459840"/>
+        <c:crossAx val="76582272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,7 +3256,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3264,7 +3264,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -3519,11 +3519,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77378304"/>
-        <c:axId val="77380224"/>
+        <c:axId val="76779520"/>
+        <c:axId val="76781440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77378304"/>
+        <c:axId val="76779520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,14 +3547,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77380224"/>
+        <c:crossAx val="76781440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77380224"/>
+        <c:axId val="76781440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3580,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77378304"/>
+        <c:crossAx val="76779520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3593,7 +3593,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3601,7 +3601,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3839,11 +3839,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74683904"/>
-        <c:axId val="74685824"/>
+        <c:axId val="75706752"/>
+        <c:axId val="75708672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74683904"/>
+        <c:axId val="75706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,14 +3867,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74685824"/>
+        <c:crossAx val="75708672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74685824"/>
+        <c:axId val="75708672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +3900,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74683904"/>
+        <c:crossAx val="75706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3913,7 +3913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3921,7 +3921,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -4143,11 +4143,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77747328"/>
-        <c:axId val="77749248"/>
+        <c:axId val="77148544"/>
+        <c:axId val="77150464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77747328"/>
+        <c:axId val="77148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,14 +4171,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77749248"/>
+        <c:crossAx val="77150464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77749248"/>
+        <c:axId val="77150464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4204,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77747328"/>
+        <c:crossAx val="77148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4217,7 +4217,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4225,7 +4225,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4416,11 +4416,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77870976"/>
-        <c:axId val="77881344"/>
+        <c:axId val="77198464"/>
+        <c:axId val="77200384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77870976"/>
+        <c:axId val="77198464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,14 +4444,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77881344"/>
+        <c:crossAx val="77200384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77881344"/>
+        <c:axId val="77200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4477,7 +4477,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77870976"/>
+        <c:crossAx val="77198464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4490,7 +4490,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4498,7 +4498,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4689,11 +4689,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77916416"/>
-        <c:axId val="77803904"/>
+        <c:axId val="76846592"/>
+        <c:axId val="76848512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77916416"/>
+        <c:axId val="76846592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,14 +4717,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77803904"/>
+        <c:crossAx val="76848512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77803904"/>
+        <c:axId val="76848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,7 +4750,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77916416"/>
+        <c:crossAx val="76846592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4763,7 +4763,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4771,7 +4771,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4962,11 +4962,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77826688"/>
-        <c:axId val="77837056"/>
+        <c:axId val="77227904"/>
+        <c:axId val="77238272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77826688"/>
+        <c:axId val="77227904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,14 +4990,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77837056"/>
+        <c:crossAx val="77238272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77837056"/>
+        <c:axId val="77238272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5023,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77826688"/>
+        <c:crossAx val="77227904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5036,7 +5036,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5044,7 +5044,7 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5232,11 +5232,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77958144"/>
-        <c:axId val="77964416"/>
+        <c:axId val="77342976"/>
+        <c:axId val="77349248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77958144"/>
+        <c:axId val="77342976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,14 +5260,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77964416"/>
+        <c:crossAx val="77349248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77964416"/>
+        <c:axId val="77349248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5293,7 +5293,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77958144"/>
+        <c:crossAx val="77342976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5306,7 +5306,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000108" footer="0.31496062000000108"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5314,7 +5314,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -5566,11 +5566,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75257728"/>
-        <c:axId val="75276288"/>
+        <c:axId val="75760384"/>
+        <c:axId val="75762304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75257728"/>
+        <c:axId val="75760384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,14 +5594,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75276288"/>
+        <c:crossAx val="75762304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75276288"/>
+        <c:axId val="75762304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +5627,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75257728"/>
+        <c:crossAx val="75760384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5640,7 +5640,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5648,7 +5648,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -5675,6 +5675,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5869,11 +5870,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75192576"/>
-        <c:axId val="75198848"/>
+        <c:axId val="75801728"/>
+        <c:axId val="75803648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75192576"/>
+        <c:axId val="75801728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,16 +5895,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75198848"/>
+        <c:crossAx val="75803648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75198848"/>
+        <c:axId val="75803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5925,22 +5927,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75192576"/>
+        <c:crossAx val="75801728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5948,7 +5952,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5966,6 +5970,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6138,11 +6143,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75377664"/>
-        <c:axId val="75379840"/>
+        <c:axId val="75876224"/>
+        <c:axId val="75882496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75377664"/>
+        <c:axId val="75876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,16 +6168,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75379840"/>
+        <c:crossAx val="75882496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75379840"/>
+        <c:axId val="75882496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,22 +6200,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75377664"/>
+        <c:crossAx val="75876224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6217,7 +6225,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6235,6 +6243,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6407,11 +6416,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75410816"/>
-        <c:axId val="75417088"/>
+        <c:axId val="75909376"/>
+        <c:axId val="75927936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75410816"/>
+        <c:axId val="75909376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6432,16 +6441,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75417088"/>
+        <c:crossAx val="75927936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75417088"/>
+        <c:axId val="75927936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6463,22 +6473,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75410816"/>
+        <c:crossAx val="75909376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6486,7 +6498,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6504,6 +6516,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6673,11 +6686,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75333632"/>
-        <c:axId val="75335552"/>
+        <c:axId val="76028544"/>
+        <c:axId val="76043008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75333632"/>
+        <c:axId val="76028544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6698,16 +6711,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75335552"/>
+        <c:crossAx val="76043008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75335552"/>
+        <c:axId val="76043008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6729,22 +6743,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75333632"/>
+        <c:crossAx val="76028544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6752,7 +6768,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6770,6 +6786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6939,11 +6956,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76632448"/>
-        <c:axId val="76634368"/>
+        <c:axId val="76073984"/>
+        <c:axId val="75957376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76632448"/>
+        <c:axId val="76073984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,16 +6981,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76634368"/>
+        <c:crossAx val="75957376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76634368"/>
+        <c:axId val="75957376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,22 +7013,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76632448"/>
+        <c:crossAx val="76073984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7018,7 +7038,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -7268,11 +7288,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76595968"/>
-        <c:axId val="76597888"/>
+        <c:axId val="76169216"/>
+        <c:axId val="76171136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76595968"/>
+        <c:axId val="76169216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,14 +7316,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76597888"/>
+        <c:crossAx val="76171136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76597888"/>
+        <c:axId val="76171136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7329,7 +7349,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76595968"/>
+        <c:crossAx val="76169216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7342,7 +7362,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8084,9 +8104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8124,7 +8144,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8194,7 +8214,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8370,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9157,8 +9177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C29"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9945,8 +9965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C29"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/coleta-manhente.xlsx
+++ b/coleta-manhente.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4965"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="9960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Médias" sheetId="1" r:id="rId1"/>
@@ -97,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -142,11 +143,11 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,7 +231,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -296,7 +297,7 @@
             <c:numRef>
               <c:f>Médias!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>0.47194906473159998</c:v>
@@ -352,7 +353,7 @@
             <c:numRef>
               <c:f>Médias!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.5847217154502999</c:v>
@@ -408,7 +409,7 @@
             <c:numRef>
               <c:f>Médias!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>5.6162580549717003</c:v>
@@ -464,7 +465,7 @@
             <c:numRef>
               <c:f>Médias!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>7.3745493865013003</c:v>
@@ -480,11 +481,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75685888"/>
-        <c:axId val="75687808"/>
+        <c:axId val="126337024"/>
+        <c:axId val="126338944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75685888"/>
+        <c:axId val="126337024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,14 +509,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75687808"/>
+        <c:crossAx val="126338944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75687808"/>
+        <c:axId val="126338944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,9 +540,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75685888"/>
+        <c:crossAx val="126337024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -554,7 +555,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -562,7 +563,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -628,13 +629,16 @@
             <c:numRef>
               <c:f>Máximas!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.2080950737</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.2509231567382999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.943817853928003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,13 +685,16 @@
             <c:numRef>
               <c:f>Máximas!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>14.948456764221</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26.861585807800001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376.40648055077003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +741,7 @@
             <c:numRef>
               <c:f>Máximas!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>23.882560586928999</c:v>
@@ -787,7 +794,7 @@
             <c:numRef>
               <c:f>Máximas!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>58.664161030452</c:v>
@@ -800,11 +807,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76247424"/>
-        <c:axId val="76249344"/>
+        <c:axId val="128307584"/>
+        <c:axId val="128309504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76247424"/>
+        <c:axId val="128307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,14 +835,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76249344"/>
+        <c:crossAx val="128309504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76249344"/>
+        <c:axId val="128309504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,9 +866,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76247424"/>
+        <c:crossAx val="128307584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -874,7 +881,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -882,7 +889,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -956,7 +963,7 @@
             <c:numRef>
               <c:f>Máximas!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.0456759929657</c:v>
@@ -1012,7 +1019,7 @@
             <c:numRef>
               <c:f>Máximas!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>14.557331132889001</c:v>
@@ -1068,7 +1075,7 @@
             <c:numRef>
               <c:f>Máximas!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>42.186570715903997</c:v>
@@ -1124,24 +1131,27 @@
             <c:numRef>
               <c:f>Máximas!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>33.993995714188003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>121.54206865629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1175.2803437709999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76095872"/>
-        <c:axId val="76097792"/>
+        <c:axId val="128545152"/>
+        <c:axId val="128547072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76095872"/>
+        <c:axId val="128545152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,14 +1175,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76097792"/>
+        <c:crossAx val="128547072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76097792"/>
+        <c:axId val="128547072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,9 +1206,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76095872"/>
+        <c:crossAx val="128545152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1211,7 +1221,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1219,7 +1229,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -1293,7 +1303,7 @@
             <c:numRef>
               <c:f>Máximas!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1350,7 @@
             <c:numRef>
               <c:f>Máximas!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1397,7 @@
             <c:numRef>
               <c:f>Máximas!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -1434,18 +1444,18 @@
             <c:numRef>
               <c:f>Máximas!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76288768"/>
-        <c:axId val="76290688"/>
+        <c:axId val="128574208"/>
+        <c:axId val="128576128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76288768"/>
+        <c:axId val="128574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,14 +1479,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76290688"/>
+        <c:crossAx val="128576128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76290688"/>
+        <c:axId val="128576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,9 +1510,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76288768"/>
+        <c:crossAx val="128574208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,7 +1525,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1523,7 +1533,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1588,7 +1598,7 @@
             <c:numRef>
               <c:f>Máximas!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>1.9273340702057</c:v>
@@ -1644,13 +1654,16 @@
             <c:numRef>
               <c:f>Máximas!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.2080950737</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.2509231567382999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.943817853928003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +1687,7 @@
             <c:numRef>
               <c:f>Máximas!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.0456759929657</c:v>
@@ -1707,18 +1720,18 @@
             <c:numRef>
               <c:f>Máximas!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76330112"/>
-        <c:axId val="76332032"/>
+        <c:axId val="128861312"/>
+        <c:axId val="128863232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76330112"/>
+        <c:axId val="128861312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,14 +1755,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76332032"/>
+        <c:crossAx val="128863232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76332032"/>
+        <c:axId val="128863232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,9 +1786,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76330112"/>
+        <c:crossAx val="128861312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,7 +1801,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1796,7 +1809,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1861,7 +1874,7 @@
             <c:numRef>
               <c:f>Máximas!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>11.336282205582</c:v>
@@ -1917,13 +1930,16 @@
             <c:numRef>
               <c:f>Máximas!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>14.948456764221</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26.861585807800001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376.40648055077003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,7 +1963,7 @@
             <c:numRef>
               <c:f>Máximas!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>14.557331132889001</c:v>
@@ -1980,18 +1996,18 @@
             <c:numRef>
               <c:f>Máximas!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76359168"/>
-        <c:axId val="76361088"/>
+        <c:axId val="128906752"/>
+        <c:axId val="128908672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76359168"/>
+        <c:axId val="128906752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,14 +2031,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76361088"/>
+        <c:crossAx val="128908672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76361088"/>
+        <c:axId val="128908672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,9 +2062,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76359168"/>
+        <c:crossAx val="128906752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2061,7 +2077,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2069,7 +2085,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2134,7 +2150,7 @@
             <c:numRef>
               <c:f>Máximas!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>24.128049492835999</c:v>
@@ -2190,7 +2206,7 @@
             <c:numRef>
               <c:f>Máximas!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>23.882560586928999</c:v>
@@ -2220,7 +2236,7 @@
             <c:numRef>
               <c:f>Máximas!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>42.186570715903997</c:v>
@@ -2253,18 +2269,18 @@
             <c:numRef>
               <c:f>Máximas!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76412800"/>
-        <c:axId val="76423168"/>
+        <c:axId val="128935808"/>
+        <c:axId val="128946176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76412800"/>
+        <c:axId val="128935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,14 +2304,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76423168"/>
+        <c:crossAx val="128946176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76423168"/>
+        <c:axId val="128946176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,9 +2335,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76412800"/>
+        <c:crossAx val="128935808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2334,7 +2350,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2342,7 +2358,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2407,7 +2423,7 @@
             <c:numRef>
               <c:f>Máximas!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>31.997645966212001</c:v>
@@ -2463,7 +2479,7 @@
             <c:numRef>
               <c:f>Máximas!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>58.664161030452</c:v>
@@ -2493,13 +2509,16 @@
             <c:numRef>
               <c:f>Máximas!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>33.993995714188003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>121.54206865629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1175.2803437709999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,18 +2542,18 @@
             <c:numRef>
               <c:f>Máximas!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76462336"/>
-        <c:axId val="76476800"/>
+        <c:axId val="128968960"/>
+        <c:axId val="38863232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76462336"/>
+        <c:axId val="128968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,14 +2577,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76476800"/>
+        <c:crossAx val="38863232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76476800"/>
+        <c:axId val="38863232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,9 +2608,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76462336"/>
+        <c:crossAx val="128968960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2604,7 +2623,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000108" footer="0.31496062000000108"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2612,7 +2631,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -2678,7 +2697,7 @@
             <c:numRef>
               <c:f>Totais!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>9.4389812946320006</c:v>
@@ -2734,7 +2753,7 @@
             <c:numRef>
               <c:f>Totais!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>51.694434309005999</c:v>
@@ -2790,7 +2809,7 @@
             <c:numRef>
               <c:f>Totais!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>112.32516109943001</c:v>
@@ -2846,7 +2865,7 @@
             <c:numRef>
               <c:f>Totais!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>147.49098773003001</c:v>
@@ -2862,11 +2881,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76536832"/>
-        <c:axId val="76547200"/>
+        <c:axId val="38923264"/>
+        <c:axId val="48706688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76536832"/>
+        <c:axId val="38923264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,14 +2909,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76547200"/>
+        <c:crossAx val="48706688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76547200"/>
+        <c:axId val="48706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,9 +2940,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76536832"/>
+        <c:crossAx val="38923264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2936,7 +2955,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2944,7 +2963,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3010,13 +3029,16 @@
             <c:numRef>
               <c:f>Totais!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>10.492166996002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.213896989822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227.84932374953999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,13 +3085,16 @@
             <c:numRef>
               <c:f>Totais!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>39.619486141205002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>116.65495128632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1172.9971436501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,7 +3141,7 @@
             <c:numRef>
               <c:f>Totais!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>109.10901479720999</c:v>
@@ -3169,7 +3194,7 @@
             <c:numRef>
               <c:f>Totais!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>113.96275111833999</c:v>
@@ -3182,11 +3207,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76582272"/>
-        <c:axId val="76596736"/>
+        <c:axId val="48725376"/>
+        <c:axId val="48731648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76582272"/>
+        <c:axId val="48725376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,14 +3235,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76596736"/>
+        <c:crossAx val="48731648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76596736"/>
+        <c:axId val="48731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,9 +3266,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76582272"/>
+        <c:crossAx val="48725376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,7 +3281,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3264,7 +3289,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -3338,7 +3363,7 @@
             <c:numRef>
               <c:f>Totais!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>10.015240907669</c:v>
@@ -3394,7 +3419,7 @@
             <c:numRef>
               <c:f>Totais!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>40.498347377777002</c:v>
@@ -3450,7 +3475,7 @@
             <c:numRef>
               <c:f>Totais!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>79.553699564934007</c:v>
@@ -3506,24 +3531,27 @@
             <c:numRef>
               <c:f>Totais!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>129.74055735269999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>453.03373696008998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4824.1534052690004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76779520"/>
-        <c:axId val="76781440"/>
+        <c:axId val="48766976"/>
+        <c:axId val="48768896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76779520"/>
+        <c:axId val="48766976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,14 +3575,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76781440"/>
+        <c:crossAx val="48768896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76781440"/>
+        <c:axId val="48768896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3578,9 +3606,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76779520"/>
+        <c:crossAx val="48766976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3593,7 +3621,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3601,7 +3629,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3667,13 +3695,16 @@
             <c:numRef>
               <c:f>Médias!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>0.52460834980010995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0606948494910999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.392466187477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3720,13 +3751,16 @@
             <c:numRef>
               <c:f>Médias!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>1.9809743070601999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.8327475643157998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.649857182502998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3773,7 +3807,7 @@
             <c:numRef>
               <c:f>Médias!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>5.4554507398604999</c:v>
@@ -3826,7 +3860,7 @@
             <c:numRef>
               <c:f>Médias!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>5.6981375559170999</c:v>
@@ -3839,11 +3873,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75706752"/>
-        <c:axId val="75708672"/>
+        <c:axId val="126656896"/>
+        <c:axId val="126658816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75706752"/>
+        <c:axId val="126656896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,14 +3901,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75708672"/>
+        <c:crossAx val="126658816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75708672"/>
+        <c:axId val="126658816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,9 +3932,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75706752"/>
+        <c:crossAx val="126656896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3913,7 +3947,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3921,7 +3955,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -3995,7 +4029,7 @@
             <c:numRef>
               <c:f>Totais!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -4042,7 +4076,7 @@
             <c:numRef>
               <c:f>Totais!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -4089,7 +4123,7 @@
             <c:numRef>
               <c:f>Totais!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -4136,18 +4170,18 @@
             <c:numRef>
               <c:f>Totais!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77148544"/>
-        <c:axId val="77150464"/>
+        <c:axId val="48808320"/>
+        <c:axId val="48810240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77148544"/>
+        <c:axId val="48808320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,14 +4205,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77150464"/>
+        <c:crossAx val="48810240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77150464"/>
+        <c:axId val="48810240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,9 +4236,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77148544"/>
+        <c:crossAx val="48808320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4217,7 +4251,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000108" footer="0.31496062000000108"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4225,7 +4259,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4290,7 +4324,7 @@
             <c:numRef>
               <c:f>Totais!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>9.4389812946320006</c:v>
@@ -4346,13 +4380,16 @@
             <c:numRef>
               <c:f>Totais!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>10.492166996002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.213896989822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227.84932374953999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,7 +4413,7 @@
             <c:numRef>
               <c:f>Totais!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>10.015240907669</c:v>
@@ -4409,18 +4446,18 @@
             <c:numRef>
               <c:f>Totais!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77198464"/>
-        <c:axId val="77200384"/>
+        <c:axId val="48915584"/>
+        <c:axId val="48917504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77198464"/>
+        <c:axId val="48915584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,14 +4481,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77200384"/>
+        <c:crossAx val="48917504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77200384"/>
+        <c:axId val="48917504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,9 +4512,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77198464"/>
+        <c:crossAx val="48915584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4490,7 +4527,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4498,7 +4535,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4563,7 +4600,7 @@
             <c:numRef>
               <c:f>Totais!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>51.694434309005999</c:v>
@@ -4619,13 +4656,16 @@
             <c:numRef>
               <c:f>Totais!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>39.619486141205002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>116.65495128632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1172.9971436501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +4689,7 @@
             <c:numRef>
               <c:f>Totais!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>40.498347377777002</c:v>
@@ -4682,18 +4722,18 @@
             <c:numRef>
               <c:f>Totais!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76846592"/>
-        <c:axId val="76848512"/>
+        <c:axId val="48944640"/>
+        <c:axId val="48946560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76846592"/>
+        <c:axId val="48944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,14 +4757,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76848512"/>
+        <c:crossAx val="48946560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76848512"/>
+        <c:axId val="48946560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4748,9 +4788,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76846592"/>
+        <c:crossAx val="48944640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4763,7 +4803,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000108" footer="0.31496062000000108"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4771,7 +4811,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4836,7 +4876,7 @@
             <c:numRef>
               <c:f>Totais!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>112.32516109943001</c:v>
@@ -4892,7 +4932,7 @@
             <c:numRef>
               <c:f>Totais!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>109.10901479720999</c:v>
@@ -4922,7 +4962,7 @@
             <c:numRef>
               <c:f>Totais!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>79.553699564934007</c:v>
@@ -4955,18 +4995,18 @@
             <c:numRef>
               <c:f>Totais!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77227904"/>
-        <c:axId val="77238272"/>
+        <c:axId val="67331968"/>
+        <c:axId val="67342336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77227904"/>
+        <c:axId val="67331968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,14 +5030,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77238272"/>
+        <c:crossAx val="67342336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77238272"/>
+        <c:axId val="67342336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5021,9 +5061,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77227904"/>
+        <c:crossAx val="67331968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5036,7 +5076,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000113" footer="0.31496062000000113"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5044,7 +5084,7 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5109,7 +5149,7 @@
             <c:numRef>
               <c:f>Totais!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>147.49098773003001</c:v>
@@ -5165,7 +5205,7 @@
             <c:numRef>
               <c:f>Totais!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>113.96275111833999</c:v>
@@ -5195,13 +5235,16 @@
             <c:numRef>
               <c:f>Totais!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>129.74055735269999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>453.03373696008998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4824.1534052690004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5225,18 +5268,18 @@
             <c:numRef>
               <c:f>Totais!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77342976"/>
-        <c:axId val="77349248"/>
+        <c:axId val="1714432"/>
+        <c:axId val="1724800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77342976"/>
+        <c:axId val="1714432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,14 +5303,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77349248"/>
+        <c:crossAx val="1724800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77349248"/>
+        <c:axId val="1724800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5291,9 +5334,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77342976"/>
+        <c:crossAx val="1714432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5306,7 +5349,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000108" footer="0.31496062000000108"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000125" footer="0.31496062000000125"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5314,7 +5357,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -5388,7 +5431,7 @@
             <c:numRef>
               <c:f>Médias!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>0.50076204538345004</c:v>
@@ -5444,7 +5487,7 @@
             <c:numRef>
               <c:f>Médias!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.0249173688889002</c:v>
@@ -5500,13 +5543,16 @@
             <c:numRef>
               <c:f>Médias!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>3.9776849782467001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.665665175915001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.32318879812999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5553,24 +5599,27 @@
             <c:numRef>
               <c:f>Médias!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>6.4870278676351001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22.651686848004999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.20767026345001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75760384"/>
-        <c:axId val="75762304"/>
+        <c:axId val="126878464"/>
+        <c:axId val="126880384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75760384"/>
+        <c:axId val="126878464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,14 +5643,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75762304"/>
+        <c:crossAx val="126880384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75762304"/>
+        <c:axId val="126880384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5625,9 +5674,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75760384"/>
+        <c:crossAx val="126878464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5640,7 +5689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5648,7 +5697,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -5722,7 +5771,7 @@
             <c:numRef>
               <c:f>Médias!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -5769,7 +5818,7 @@
             <c:numRef>
               <c:f>Médias!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -5816,7 +5865,7 @@
             <c:numRef>
               <c:f>Médias!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -5863,18 +5912,18 @@
             <c:numRef>
               <c:f>Médias!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75801728"/>
-        <c:axId val="75803648"/>
+        <c:axId val="127177856"/>
+        <c:axId val="127179776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75801728"/>
+        <c:axId val="127177856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,14 +5947,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75803648"/>
+        <c:crossAx val="127179776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75803648"/>
+        <c:axId val="127179776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5929,9 +5978,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75801728"/>
+        <c:crossAx val="127177856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5944,7 +5993,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5952,7 +6001,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6017,7 +6066,7 @@
             <c:numRef>
               <c:f>Médias!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>0.47194906473159998</c:v>
@@ -6073,13 +6122,16 @@
             <c:numRef>
               <c:f>Médias!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>0.52460834980010995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0606948494910999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.392466187477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,7 +6155,7 @@
             <c:numRef>
               <c:f>Médias!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>0.50076204538345004</c:v>
@@ -6136,18 +6188,18 @@
             <c:numRef>
               <c:f>Médias!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75876224"/>
-        <c:axId val="75882496"/>
+        <c:axId val="127215488"/>
+        <c:axId val="127221760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75876224"/>
+        <c:axId val="127215488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6171,14 +6223,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75882496"/>
+        <c:crossAx val="127221760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75882496"/>
+        <c:axId val="127221760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6202,9 +6254,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75876224"/>
+        <c:crossAx val="127215488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6217,7 +6269,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6225,7 +6277,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6290,7 +6342,7 @@
             <c:numRef>
               <c:f>Médias!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.5847217154502999</c:v>
@@ -6346,13 +6398,16 @@
             <c:numRef>
               <c:f>Médias!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>1.9809743070601999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.8327475643157998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.649857182502998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6376,7 +6431,7 @@
             <c:numRef>
               <c:f>Médias!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>2.0249173688889002</c:v>
@@ -6409,18 +6464,18 @@
             <c:numRef>
               <c:f>Médias!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75909376"/>
-        <c:axId val="75927936"/>
+        <c:axId val="127457536"/>
+        <c:axId val="127472000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75909376"/>
+        <c:axId val="127457536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6444,14 +6499,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75927936"/>
+        <c:crossAx val="127472000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75927936"/>
+        <c:axId val="127472000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,9 +6530,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75909376"/>
+        <c:crossAx val="127457536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6490,7 +6545,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6498,7 +6553,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6563,7 +6618,7 @@
             <c:numRef>
               <c:f>Médias!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>5.6162580549717003</c:v>
@@ -6619,7 +6674,7 @@
             <c:numRef>
               <c:f>Médias!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>5.4554507398604999</c:v>
@@ -6649,13 +6704,16 @@
             <c:numRef>
               <c:f>Médias!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>3.9776849782467001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.665665175915001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.32318879812999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6679,18 +6737,18 @@
             <c:numRef>
               <c:f>Médias!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76028544"/>
-        <c:axId val="76043008"/>
+        <c:axId val="127498880"/>
+        <c:axId val="127546112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76028544"/>
+        <c:axId val="127498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6714,14 +6772,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76043008"/>
+        <c:crossAx val="127546112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76043008"/>
+        <c:axId val="127546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6745,9 +6803,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76028544"/>
+        <c:crossAx val="127498880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6760,7 +6818,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6768,7 +6826,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6833,7 +6891,7 @@
             <c:numRef>
               <c:f>Médias!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>7.3745493865013003</c:v>
@@ -6889,7 +6947,7 @@
             <c:numRef>
               <c:f>Médias!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>5.6981375559170999</c:v>
@@ -6919,13 +6977,16 @@
             <c:numRef>
               <c:f>Médias!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>6.4870278676351001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22.651686848004999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.20767026345001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6949,18 +7010,18 @@
             <c:numRef>
               <c:f>Médias!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76073984"/>
-        <c:axId val="75957376"/>
+        <c:axId val="127585280"/>
+        <c:axId val="127591552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76073984"/>
+        <c:axId val="127585280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6984,14 +7045,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75957376"/>
+        <c:crossAx val="127591552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75957376"/>
+        <c:axId val="127591552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7015,9 +7076,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76073984"/>
+        <c:crossAx val="127585280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7030,7 +7091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7038,7 +7099,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -7104,7 +7165,7 @@
             <c:numRef>
               <c:f>Máximas!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>1.9273340702057</c:v>
@@ -7160,7 +7221,7 @@
             <c:numRef>
               <c:f>Máximas!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>11.336282205582</c:v>
@@ -7216,7 +7277,7 @@
             <c:numRef>
               <c:f>Máximas!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>24.128049492835999</c:v>
@@ -7272,7 +7333,7 @@
             <c:numRef>
               <c:f>Máximas!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="2">
                   <c:v>31.997645966212001</c:v>
@@ -7288,11 +7349,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76169216"/>
-        <c:axId val="76171136"/>
+        <c:axId val="128217088"/>
+        <c:axId val="128219008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76169216"/>
+        <c:axId val="128217088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7316,14 +7377,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76171136"/>
+        <c:crossAx val="128219008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76171136"/>
+        <c:axId val="128219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7347,9 +7408,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76169216"/>
+        <c:crossAx val="128217088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7362,7 +7423,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8104,9 +8165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8144,7 +8205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8214,7 +8275,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8390,8 +8451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8399,13 +8460,13 @@
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="2"/>
+    <col min="18" max="18" width="11.7109375" style="5"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -8445,7 +8506,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -8457,7 +8518,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -8469,7 +8530,7 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -8481,7 +8542,7 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8495,19 +8556,15 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="4"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="4"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="4"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="1" t="s">
@@ -8516,19 +8573,15 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" s="4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
@@ -8539,7 +8592,7 @@
       </c>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>0.47194906473159998</v>
       </c>
@@ -8548,7 +8601,7 @@
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>2.5847217154502999</v>
       </c>
@@ -8557,7 +8610,7 @@
       </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>5.6162580549717003</v>
       </c>
@@ -8566,7 +8619,7 @@
       </c>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" s="4">
+      <c r="R5" s="5">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>7.3745493865013003</v>
       </c>
@@ -8580,7 +8633,7 @@
       </c>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>1.0604436993599</v>
       </c>
@@ -8589,7 +8642,7 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>11.472339289188</v>
       </c>
@@ -8598,7 +8651,7 @@
       </c>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>26.218154038190999</v>
       </c>
@@ -8607,7 +8660,7 @@
       </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="4">
+      <c r="R6" s="5">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>38.272883449395003</v>
       </c>
@@ -8621,7 +8674,7 @@
       </c>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>11.418871200085</v>
       </c>
@@ -8630,7 +8683,7 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>122.40926737069999</v>
       </c>
@@ -8639,7 +8692,7 @@
       </c>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <f>SUM(K7:M7)/COUNT(K7:M7)</f>
         <v>272.63668714880998</v>
       </c>
@@ -8648,28 +8701,24 @@
       </c>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="4">
+      <c r="R7" s="5">
         <f>SUM(O7:Q7)/COUNT(O7:Q7)</f>
         <v>414.38697440545002</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
@@ -8681,19 +8730,15 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" s="4"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="4"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" s="4"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
@@ -8702,19 +8747,15 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="4"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="4"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="N10" s="4"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
@@ -8725,7 +8766,7 @@
       </c>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.52460834980010995</v>
       </c>
@@ -8734,7 +8775,7 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>1.9809743070601999</v>
       </c>
@@ -8743,7 +8784,7 @@
       </c>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>5.4554507398604999</v>
       </c>
@@ -8752,7 +8793,7 @@
       </c>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" s="4">
+      <c r="R11" s="5">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>5.6981375559170999</v>
       </c>
@@ -8766,7 +8807,7 @@
       </c>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>1.0606948494910999</v>
       </c>
@@ -8775,7 +8816,7 @@
       </c>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>5.8327475643157998</v>
       </c>
@@ -8784,7 +8825,7 @@
       </c>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>13.75642331481</v>
       </c>
@@ -8793,7 +8834,7 @@
       </c>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" s="4">
+      <c r="R12" s="5">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>17.148301653861999</v>
       </c>
@@ -8802,40 +8843,44 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13"/>
+      <c r="C13">
+        <v>11.392466187477</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="4"/>
-      <c r="G13"/>
+      <c r="F13" s="5">
+        <f>SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>11.392466187477</v>
+      </c>
+      <c r="G13">
+        <v>58.649857182502998</v>
+      </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="5">
+        <f>SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>58.649857182502998</v>
+      </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="4"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
@@ -8847,19 +8892,15 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="4"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="4"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="4"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
@@ -8871,19 +8912,15 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="4"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="4"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" s="4"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" s="1" t="s">
@@ -8894,7 +8931,7 @@
       </c>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>0.50076204538345004</v>
       </c>
@@ -8903,7 +8940,7 @@
       </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>2.0249173688889002</v>
       </c>
@@ -8912,7 +8949,7 @@
       </c>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>3.9776849782467001</v>
       </c>
@@ -8921,7 +8958,7 @@
       </c>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" s="4">
+      <c r="R17" s="5">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>6.4870278676351001</v>
       </c>
@@ -8935,7 +8972,7 @@
       </c>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>1.0592953920364001</v>
       </c>
@@ -8944,7 +8981,7 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>5.7163003969192001</v>
       </c>
@@ -8953,7 +8990,7 @@
       </c>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>14.665665175915001</v>
       </c>
@@ -8962,7 +8999,7 @@
       </c>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18" s="4">
+      <c r="R18" s="5">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>22.651686848004999</v>
       </c>
@@ -8976,7 +9013,7 @@
       </c>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>35.535602599382997</v>
       </c>
@@ -8985,7 +9022,7 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>62.606338047982</v>
       </c>
@@ -8994,29 +9031,33 @@
       </c>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="4"/>
-      <c r="O19"/>
+      <c r="N19" s="5">
+        <f>SUM(K19:M19)/COUNT(K19:M19)</f>
+        <v>147.32318879812999</v>
+      </c>
+      <c r="O19">
+        <v>241.20767026345001</v>
+      </c>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" s="4"/>
+      <c r="R19" s="5">
+        <f>SUM(O19:Q19)/COUNT(O19:Q19)</f>
+        <v>241.20767026345001</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
@@ -9025,22 +9066,18 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
@@ -9049,110 +9086,94 @@
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:18">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9177,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9186,12 +9207,14 @@
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="257" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.7109375" style="1"/>
+    <col min="18" max="18" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -9230,7 +9253,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -9242,7 +9265,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -9254,7 +9277,7 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -9266,7 +9289,7 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9277,43 +9300,41 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
@@ -9322,36 +9343,36 @@
       <c r="C5">
         <v>1.9273340702057</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>1.9273340702057</v>
       </c>
       <c r="G5">
         <v>11.336282205582</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>11.336282205582</v>
       </c>
       <c r="K5">
         <v>24.128049492835999</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>24.128049492835999</v>
       </c>
       <c r="O5">
         <v>31.997645966212001</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>31.997645966212001</v>
       </c>
@@ -9363,36 +9384,36 @@
       <c r="C6">
         <v>4.2591221332550004</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>4.2591221332550004</v>
       </c>
       <c r="G6">
         <v>48.471689414978002</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>48.471689414978002</v>
       </c>
       <c r="K6">
         <v>112.06366667748</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>112.06366667748</v>
       </c>
       <c r="O6">
         <v>161.74292901357001</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="5">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>161.74292901357001</v>
       </c>
@@ -9404,57 +9425,56 @@
       <c r="C7">
         <v>45.804608106613003</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>45.804608106613003</v>
       </c>
       <c r="G7">
         <v>511.39352321625</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>511.39352321625</v>
       </c>
       <c r="K7">
         <v>1147.8808264255999</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5">
         <f>SUM(K7:M7)/COUNT(K7:M7)</f>
         <v>1147.8808264255999</v>
       </c>
       <c r="O7">
         <v>1732.2730614503</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="5">
         <f>SUM(O7:Q7)/COUNT(O7:Q7)</f>
         <v>1732.2730614503</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
@@ -9463,43 +9483,41 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
@@ -9508,36 +9526,36 @@
       <c r="C11">
         <v>2.2080950737</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>2.2080950737</v>
       </c>
       <c r="G11">
         <v>14.948456764221</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>14.948456764221</v>
       </c>
       <c r="K11">
         <v>23.882560586928999</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="5">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>23.882560586928999</v>
       </c>
       <c r="O11">
         <v>58.664161030452</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="5">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>58.664161030452</v>
       </c>
@@ -9549,36 +9567,36 @@
       <c r="C12">
         <v>4.2509231567382999</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>4.2509231567382999</v>
       </c>
       <c r="G12">
         <v>26.861585807800001</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>26.861585807800001</v>
       </c>
       <c r="K12">
         <v>76.055447506904997</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="5">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>76.055447506904997</v>
       </c>
       <c r="O12">
         <v>184.3423541228</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>184.3423541228</v>
       </c>
@@ -9587,40 +9605,49 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="C13">
+        <v>45.943817853928003</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5">
+        <f>SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>45.943817853928003</v>
+      </c>
+      <c r="G13">
+        <v>376.40648055077003</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5">
+        <f>SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>376.40648055077003</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
@@ -9629,22 +9656,21 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
@@ -9653,22 +9679,21 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" s="1" t="s">
@@ -9677,36 +9702,36 @@
       <c r="C17">
         <v>2.0456759929657</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>2.0456759929657</v>
       </c>
       <c r="G17">
         <v>14.557331132889001</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="5">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>14.557331132889001</v>
       </c>
       <c r="K17">
         <v>42.186570715903997</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>42.186570715903997</v>
       </c>
       <c r="O17">
         <v>33.993995714188003</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="5">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>33.993995714188003</v>
       </c>
@@ -9718,36 +9743,36 @@
       <c r="C18">
         <v>4.2706408500670996</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>4.2706408500670996</v>
       </c>
       <c r="G18">
         <v>26.637605333328001</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>26.637605333328001</v>
       </c>
       <c r="K18">
         <v>101.69194123745</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>101.69194123745</v>
       </c>
       <c r="O18">
         <v>121.54206865629</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="5">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>121.54206865629</v>
       </c>
@@ -9759,52 +9784,56 @@
       <c r="C19">
         <v>152.68665903806999</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>152.68665903806999</v>
       </c>
       <c r="G19">
         <v>403.93406363328</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="5">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>403.93406363328</v>
       </c>
       <c r="K19">
         <v>750.43002447487004</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5">
         <f>SUM(K19:M19)/COUNT(K19:M19)</f>
         <v>750.43002447487004</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
+      <c r="O19">
+        <v>1175.2803437709999</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="5">
+        <f>SUM(O19:Q19)/COUNT(O19:Q19)</f>
+        <v>1175.2803437709999</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
@@ -9813,22 +9842,21 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
@@ -9837,110 +9865,106 @@
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9965,8 +9989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9974,13 +9998,13 @@
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="6" max="6" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -10020,7 +10044,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -10032,7 +10056,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -10044,7 +10068,7 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -10056,7 +10080,7 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10067,43 +10091,43 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
       <c r="O4"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
@@ -10112,36 +10136,36 @@
       <c r="C5">
         <v>9.4389812946320006</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>9.4389812946320006</v>
       </c>
       <c r="G5">
         <v>51.694434309005999</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>51.694434309005999</v>
       </c>
       <c r="K5">
         <v>112.32516109943001</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>112.32516109943001</v>
       </c>
       <c r="O5">
         <v>147.49098773003001</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>147.49098773003001</v>
       </c>
@@ -10153,36 +10177,36 @@
       <c r="C6">
         <v>21.208873987198</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>21.208873987198</v>
       </c>
       <c r="G6">
         <v>229.44678578377</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>229.44678578377</v>
       </c>
       <c r="K6">
         <v>524.36308076381999</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>524.36308076381999</v>
       </c>
       <c r="O6">
         <v>765.45766898790998</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="5">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>765.45766898790998</v>
       </c>
@@ -10194,57 +10218,57 @@
       <c r="C7">
         <v>228.37742400169</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>228.37742400169</v>
       </c>
       <c r="G7">
         <v>2448.1853474139998</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>2448.1853474139998</v>
       </c>
       <c r="K7">
         <v>5452.7337429762001</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5">
         <f>SUM(K7:M7)/COUNT(K7:M7)</f>
         <v>5452.7337429762001</v>
       </c>
       <c r="O7">
         <v>8287.7394881090004</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="5">
         <f>SUM(O7:Q7)/COUNT(O7:Q7)</f>
         <v>8287.7394881090004</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
@@ -10253,43 +10277,43 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
@@ -10298,36 +10322,36 @@
       <c r="C11">
         <v>10.492166996002</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>10.492166996002</v>
       </c>
       <c r="G11">
         <v>39.619486141205002</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>39.619486141205002</v>
       </c>
       <c r="K11">
         <v>109.10901479720999</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="5">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>109.10901479720999</v>
       </c>
       <c r="O11">
         <v>113.96275111833999</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="5">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>113.96275111833999</v>
       </c>
@@ -10339,36 +10363,36 @@
       <c r="C12">
         <v>21.213896989822</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>21.213896989822</v>
       </c>
       <c r="G12">
         <v>116.65495128632</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>116.65495128632</v>
       </c>
       <c r="K12">
         <v>275.12846629619997</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="5">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>275.12846629619997</v>
       </c>
       <c r="O12">
         <v>342.96603307724001</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>342.96603307724001</v>
       </c>
@@ -10377,40 +10401,50 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="C13">
+        <v>227.84932374953999</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5">
+        <f>SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>227.84932374953999</v>
+      </c>
+      <c r="G13">
+        <v>1172.9971436501</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5">
+        <f>SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>1172.9971436501</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
@@ -10419,22 +10453,22 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
@@ -10443,22 +10477,22 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" s="1" t="s">
@@ -10467,36 +10501,36 @@
       <c r="C17">
         <v>10.015240907669</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>10.015240907669</v>
       </c>
       <c r="G17">
         <v>40.498347377777002</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="5">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>40.498347377777002</v>
       </c>
       <c r="K17">
         <v>79.553699564934007</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>79.553699564934007</v>
       </c>
       <c r="O17">
         <v>129.74055735269999</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="5">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>129.74055735269999</v>
       </c>
@@ -10508,36 +10542,36 @@
       <c r="C18">
         <v>21.185907840729001</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>21.185907840729001</v>
       </c>
       <c r="G18">
         <v>114.32600793838</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>114.32600793838</v>
       </c>
       <c r="K18">
         <v>293.31330351830002</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>293.31330351830002</v>
       </c>
       <c r="O18">
         <v>453.03373696008998</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="5">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>453.03373696008998</v>
       </c>
@@ -10549,52 +10583,57 @@
       <c r="C19">
         <v>710.71205198765006</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>710.71205198765006</v>
       </c>
       <c r="G19">
         <v>1252.1267609596</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="5">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>1252.1267609596</v>
       </c>
       <c r="K19">
         <v>2946.4637759625998</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5">
         <f>SUM(K19:M19)/COUNT(K19:M19)</f>
         <v>2946.4637759625998</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
+      <c r="O19">
+        <v>4824.1534052690004</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="5">
+        <f>SUM(O19:Q19)/COUNT(O19:Q19)</f>
+        <v>4824.1534052690004</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
@@ -10603,22 +10642,22 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
@@ -10627,110 +10666,110 @@
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
